--- a/result/gr75_05_simulated/details.xlsx
+++ b/result/gr75_05_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7520377635955811</v>
+        <v>0.5837342739105225</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>3951.63281424406</v>
+        <v>4074.437543259144</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1152109766725491</v>
+        <v>0.115228378485947</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1022901460078159</v>
+        <v>0.09427896080783064</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09511091587712603</v>
+        <v>0.09164862871090457</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08916620196541276</v>
+        <v>0.09164862871090457</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08916620196541276</v>
+        <v>0.09162872496323575</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08916620196541276</v>
+        <v>0.09162872496323575</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08916620196541276</v>
+        <v>0.09101188561319042</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08916620196541276</v>
+        <v>0.09101188561319042</v>
       </c>
       <c r="N2" t="n">
-        <v>0.08916620196541276</v>
+        <v>0.09073035137147749</v>
       </c>
       <c r="O2" t="n">
-        <v>0.08916620196541276</v>
+        <v>0.09073035137147749</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08916620196541276</v>
+        <v>0.09071455732584895</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.08859336955884235</v>
+        <v>0.09071455732584895</v>
       </c>
       <c r="R2" t="n">
-        <v>0.08859336955884235</v>
+        <v>0.09071455732584895</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0883775413250433</v>
+        <v>0.09071455732584895</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0883775413250433</v>
+        <v>0.09071455732584895</v>
       </c>
       <c r="U2" t="n">
-        <v>0.08832398760689039</v>
+        <v>0.09053651821903502</v>
       </c>
       <c r="V2" t="n">
-        <v>0.08797809612708823</v>
+        <v>0.09022796526948479</v>
       </c>
       <c r="W2" t="n">
-        <v>0.08797809612708823</v>
+        <v>0.09022796526948479</v>
       </c>
       <c r="X2" t="n">
-        <v>0.08796800657534606</v>
+        <v>0.09015524345774807</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.08769654608662884</v>
+        <v>0.09009040045339461</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7290041446685791</v>
+        <v>0.5937159061431885</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>3961.811093406616</v>
+        <v>4010.74386216471</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1098222998525836</v>
+        <v>0.1105902634219777</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09047049461662419</v>
+        <v>0.09189161393558125</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09017414616630925</v>
+        <v>0.09176008186304557</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08957588996642367</v>
+        <v>0.09176008186304557</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08957588996642367</v>
+        <v>0.0907168224867408</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08933487245091243</v>
+        <v>0.08975750645070747</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08933487245091243</v>
+        <v>0.08975750645070747</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08880531586251725</v>
+        <v>0.08975750645070747</v>
       </c>
       <c r="N3" t="n">
-        <v>0.08880531586251725</v>
+        <v>0.08975750645070747</v>
       </c>
       <c r="O3" t="n">
-        <v>0.08880531586251725</v>
+        <v>0.08975750645070747</v>
       </c>
       <c r="P3" t="n">
-        <v>0.08880531586251725</v>
+        <v>0.08962920808997456</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.08870665195012493</v>
+        <v>0.08962920808997456</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08789495308784825</v>
+        <v>0.08962920808997456</v>
       </c>
       <c r="S3" t="n">
-        <v>0.08789495308784825</v>
+        <v>0.08962920808997456</v>
       </c>
       <c r="T3" t="n">
-        <v>0.08789495308784825</v>
+        <v>0.08938708446695913</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08789495308784825</v>
+        <v>0.08916406507233701</v>
       </c>
       <c r="V3" t="n">
-        <v>0.08789495308784825</v>
+        <v>0.08916406507233701</v>
       </c>
       <c r="W3" t="n">
-        <v>0.08789495308784825</v>
+        <v>0.08909089488286877</v>
       </c>
       <c r="X3" t="n">
-        <v>0.08789495308784825</v>
+        <v>0.08898035547547972</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.08789495308784825</v>
+        <v>0.08884880822933156</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6944053173065186</v>
+        <v>0.6720044612884521</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>4004.215711010409</v>
+        <v>3982.49422706413</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1128214622427986</v>
+        <v>0.1117251618707877</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0946526676343087</v>
+        <v>0.09371622492156641</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09078015516522461</v>
+        <v>0.09188442673609226</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08954313892095646</v>
+        <v>0.08868758830594635</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08954313892095646</v>
+        <v>0.08868758830594635</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08954313892095646</v>
+        <v>0.08839268234497212</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08954313892095646</v>
+        <v>0.08839268234497212</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08954313892095646</v>
+        <v>0.08839268234497212</v>
       </c>
       <c r="N4" t="n">
-        <v>0.08954313892095646</v>
+        <v>0.08839268234497212</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08954313892095646</v>
+        <v>0.08839268234497212</v>
       </c>
       <c r="P4" t="n">
-        <v>0.08954313892095646</v>
+        <v>0.08839268234497212</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.08954313892095646</v>
+        <v>0.08839268234497212</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0895212383478141</v>
+        <v>0.08839268234497212</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0895212383478141</v>
+        <v>0.08839268234497212</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0895212383478141</v>
+        <v>0.08839268234497212</v>
       </c>
       <c r="U4" t="n">
-        <v>0.08922927093581964</v>
+        <v>0.08839268234497212</v>
       </c>
       <c r="V4" t="n">
-        <v>0.08922927093581964</v>
+        <v>0.08839268234497212</v>
       </c>
       <c r="W4" t="n">
-        <v>0.08872155382086566</v>
+        <v>0.08830880999943046</v>
       </c>
       <c r="X4" t="n">
-        <v>0.08872155382086566</v>
+        <v>0.08829813308117211</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.08872155382086566</v>
+        <v>0.08829813308117211</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6687109470367432</v>
+        <v>0.5625276565551758</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>4005.431703395056</v>
+        <v>3983.118473920424</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1163842180377419</v>
+        <v>0.1139790135869888</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09255543975584539</v>
+        <v>0.09696133310861395</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09091837301707441</v>
+        <v>0.08851051664638104</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09091837301707441</v>
+        <v>0.08851051664638104</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08985686713229186</v>
+        <v>0.08851051664638104</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08966856650290531</v>
+        <v>0.08851051664638104</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08966856650290531</v>
+        <v>0.08851051664638104</v>
       </c>
       <c r="M5" t="n">
-        <v>0.08966856650290531</v>
+        <v>0.08851051664638104</v>
       </c>
       <c r="N5" t="n">
-        <v>0.08965271038493412</v>
+        <v>0.08851051664638104</v>
       </c>
       <c r="O5" t="n">
-        <v>0.08965271038493412</v>
+        <v>0.08851051664638104</v>
       </c>
       <c r="P5" t="n">
-        <v>0.08965271038493412</v>
+        <v>0.08851051664638104</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08965271038493412</v>
+        <v>0.08831030163587569</v>
       </c>
       <c r="R5" t="n">
-        <v>0.08960125220275553</v>
+        <v>0.08831030163587569</v>
       </c>
       <c r="S5" t="n">
-        <v>0.08960125220275553</v>
+        <v>0.08831030163587569</v>
       </c>
       <c r="T5" t="n">
-        <v>0.08925014250631716</v>
+        <v>0.08831030163587569</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08907443704763245</v>
+        <v>0.08831030163587569</v>
       </c>
       <c r="V5" t="n">
-        <v>0.08874525737612193</v>
+        <v>0.08831030163587569</v>
       </c>
       <c r="W5" t="n">
-        <v>0.08874525737612193</v>
+        <v>0.08831030163587569</v>
       </c>
       <c r="X5" t="n">
-        <v>0.08874525737612193</v>
+        <v>0.08831030163587569</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.08874525737612193</v>
+        <v>0.08831030163587569</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.579514741897583</v>
+        <v>0.5781002044677734</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>3951.406482889764</v>
+        <v>3965.601166609454</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1135118371821602</v>
+        <v>0.1122850210477101</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09859504040120701</v>
+        <v>0.09386498307581029</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08809588711387961</v>
+        <v>0.08951999617818038</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08809588711387961</v>
+        <v>0.08951999617818038</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08809588711387961</v>
+        <v>0.08951999617818038</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08809588711387961</v>
+        <v>0.08951999617818038</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08809588711387961</v>
+        <v>0.08923115682709858</v>
       </c>
       <c r="M6" t="n">
-        <v>0.08809588711387961</v>
+        <v>0.08923115682709858</v>
       </c>
       <c r="N6" t="n">
-        <v>0.08809588711387961</v>
+        <v>0.08868089121964921</v>
       </c>
       <c r="O6" t="n">
-        <v>0.08809588711387961</v>
+        <v>0.08868089121964921</v>
       </c>
       <c r="P6" t="n">
-        <v>0.08809588711387961</v>
+        <v>0.08868089121964921</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.087997668338749</v>
+        <v>0.08868089121964921</v>
       </c>
       <c r="R6" t="n">
-        <v>0.087997668338749</v>
+        <v>0.08868089121964921</v>
       </c>
       <c r="S6" t="n">
-        <v>0.08796611176985743</v>
+        <v>0.08868089121964921</v>
       </c>
       <c r="T6" t="n">
-        <v>0.08771858427003137</v>
+        <v>0.08868089121964921</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08771858427003137</v>
+        <v>0.08868089121964921</v>
       </c>
       <c r="V6" t="n">
-        <v>0.08771858427003137</v>
+        <v>0.08796883365710434</v>
       </c>
       <c r="W6" t="n">
-        <v>0.08771858427003137</v>
+        <v>0.08796883365710434</v>
       </c>
       <c r="X6" t="n">
-        <v>0.08771858427003137</v>
+        <v>0.08796883365710434</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.08769213416939109</v>
+        <v>0.08796883365710434</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6189804077148438</v>
+        <v>0.5937752723693848</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>3938.146274879236</v>
+        <v>4015.866200509996</v>
       </c>
       <c r="F7" t="n">
-        <v>0.110520786545112</v>
+        <v>0.1024739487415298</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08823062804918036</v>
+        <v>0.09808922256392381</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08823062804918036</v>
+        <v>0.09141855512312207</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08810287385444067</v>
+        <v>0.09056566633149699</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08810287385444067</v>
+        <v>0.09056566633149699</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08810287385444067</v>
+        <v>0.09056566633149699</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08810287385444067</v>
+        <v>0.09056566633149699</v>
       </c>
       <c r="M7" t="n">
-        <v>0.08810287385444067</v>
+        <v>0.09056566633149699</v>
       </c>
       <c r="N7" t="n">
-        <v>0.08810287385444067</v>
+        <v>0.09031574160808997</v>
       </c>
       <c r="O7" t="n">
-        <v>0.08810287385444067</v>
+        <v>0.09031574160808997</v>
       </c>
       <c r="P7" t="n">
-        <v>0.08810287385444067</v>
+        <v>0.08960213956108147</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0874902697102789</v>
+        <v>0.08960213956108147</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0874902697102789</v>
+        <v>0.08960213956108147</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0874902697102789</v>
+        <v>0.08960213956108147</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0874902697102789</v>
+        <v>0.08939437953377424</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08748731580431136</v>
+        <v>0.08939437953377424</v>
       </c>
       <c r="V7" t="n">
-        <v>0.08745578431774549</v>
+        <v>0.08922645563597494</v>
       </c>
       <c r="W7" t="n">
-        <v>0.08745578431774549</v>
+        <v>0.08922645563597494</v>
       </c>
       <c r="X7" t="n">
-        <v>0.08745297636204134</v>
+        <v>0.08915660016679086</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.08743365058244124</v>
+        <v>0.08894865887933714</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5885283946990967</v>
+        <v>0.5781242847442627</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>3971.705255921894</v>
+        <v>3988.289631738367</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1100367138877279</v>
+        <v>0.1109588348104388</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09639899221180763</v>
+        <v>0.09791663166745167</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08928045754169454</v>
+        <v>0.09791663166745167</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08928045754169454</v>
+        <v>0.09244938648061855</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08928045754169454</v>
+        <v>0.09244938648061855</v>
       </c>
       <c r="K8" t="n">
-        <v>0.08928045754169454</v>
+        <v>0.08994085561775879</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08928045754169454</v>
+        <v>0.08994085561775879</v>
       </c>
       <c r="M8" t="n">
-        <v>0.08928045754169454</v>
+        <v>0.08994085561775879</v>
       </c>
       <c r="N8" t="n">
-        <v>0.08862603611523776</v>
+        <v>0.08994085561775879</v>
       </c>
       <c r="O8" t="n">
-        <v>0.08862603611523776</v>
+        <v>0.08963904298533183</v>
       </c>
       <c r="P8" t="n">
-        <v>0.08862603611523776</v>
+        <v>0.08963904298533183</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.08862603611523776</v>
+        <v>0.0885941011762193</v>
       </c>
       <c r="R8" t="n">
-        <v>0.08862603611523776</v>
+        <v>0.0885941011762193</v>
       </c>
       <c r="S8" t="n">
-        <v>0.08859672846970482</v>
+        <v>0.0885941011762193</v>
       </c>
       <c r="T8" t="n">
-        <v>0.08859672846970482</v>
+        <v>0.0885941011762193</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0885183318790818</v>
+        <v>0.08841110393252175</v>
       </c>
       <c r="V8" t="n">
-        <v>0.08808782175286341</v>
+        <v>0.08841110393252175</v>
       </c>
       <c r="W8" t="n">
-        <v>0.08808782175286341</v>
+        <v>0.08841110393252175</v>
       </c>
       <c r="X8" t="n">
-        <v>0.08808782175286341</v>
+        <v>0.08841110393252175</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.08808782175286341</v>
+        <v>0.08841110393252175</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5940620899200439</v>
+        <v>0.5625247955322266</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>3984.919627629068</v>
+        <v>3992.073557720511</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1102961950296937</v>
+        <v>0.1111220854757544</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09090090439392641</v>
+        <v>0.09929990293201571</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09090090439392641</v>
+        <v>0.0918408374925941</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09090090439392641</v>
+        <v>0.08986321868277079</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09090090439392641</v>
+        <v>0.08986321868277079</v>
       </c>
       <c r="K9" t="n">
-        <v>0.08904340704617947</v>
+        <v>0.08952076636380167</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08904340704617947</v>
+        <v>0.08952076636380167</v>
       </c>
       <c r="M9" t="n">
-        <v>0.08834541184462119</v>
+        <v>0.08951628661716182</v>
       </c>
       <c r="N9" t="n">
-        <v>0.08834541184462119</v>
+        <v>0.08901144645986662</v>
       </c>
       <c r="O9" t="n">
-        <v>0.08834541184462119</v>
+        <v>0.08901144645986662</v>
       </c>
       <c r="P9" t="n">
-        <v>0.08834541184462119</v>
+        <v>0.08901144645986662</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.08834541184462119</v>
+        <v>0.08900981318984759</v>
       </c>
       <c r="R9" t="n">
-        <v>0.08834541184462119</v>
+        <v>0.08900981318984759</v>
       </c>
       <c r="S9" t="n">
-        <v>0.08834541184462119</v>
+        <v>0.08880996559080201</v>
       </c>
       <c r="T9" t="n">
-        <v>0.08834541184462119</v>
+        <v>0.08880996559080201</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08834541184462119</v>
+        <v>0.08880996559080201</v>
       </c>
       <c r="V9" t="n">
-        <v>0.08834541184462119</v>
+        <v>0.08880996559080201</v>
       </c>
       <c r="W9" t="n">
-        <v>0.08834541184462119</v>
+        <v>0.08880996559080201</v>
       </c>
       <c r="X9" t="n">
-        <v>0.08834541184462119</v>
+        <v>0.0887837138704558</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.08834541184462119</v>
+        <v>0.08848486467291442</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6357536315917969</v>
+        <v>0.5780987739562988</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>4025.755206081353</v>
+        <v>3998.922586091195</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1179060666000577</v>
+        <v>0.1160189416882825</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09183293891497459</v>
+        <v>0.1067350372143929</v>
       </c>
       <c r="H10" t="n">
-        <v>0.09183293891497459</v>
+        <v>0.09140478528807247</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09183293891497459</v>
+        <v>0.09140478528807247</v>
       </c>
       <c r="J10" t="n">
-        <v>0.09183293891497459</v>
+        <v>0.0912114978673526</v>
       </c>
       <c r="K10" t="n">
-        <v>0.08931098946479091</v>
+        <v>0.09069082666031124</v>
       </c>
       <c r="L10" t="n">
-        <v>0.08931098946479091</v>
+        <v>0.08898554863375562</v>
       </c>
       <c r="M10" t="n">
-        <v>0.08931098946479091</v>
+        <v>0.08898554863375562</v>
       </c>
       <c r="N10" t="n">
-        <v>0.08931098946479091</v>
+        <v>0.08898554863375562</v>
       </c>
       <c r="O10" t="n">
-        <v>0.08931098946479091</v>
+        <v>0.08898554863375562</v>
       </c>
       <c r="P10" t="n">
-        <v>0.08931098946479091</v>
+        <v>0.08898554863375562</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.08931098946479091</v>
+        <v>0.08898554863375562</v>
       </c>
       <c r="R10" t="n">
-        <v>0.08931098946479091</v>
+        <v>0.08898554863375562</v>
       </c>
       <c r="S10" t="n">
-        <v>0.08931098946479091</v>
+        <v>0.08898554863375562</v>
       </c>
       <c r="T10" t="n">
-        <v>0.08931098946479091</v>
+        <v>0.08898554863375562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08931098946479091</v>
+        <v>0.08874949782613061</v>
       </c>
       <c r="V10" t="n">
-        <v>0.08931098946479091</v>
+        <v>0.08874949782613061</v>
       </c>
       <c r="W10" t="n">
-        <v>0.08931098946479091</v>
+        <v>0.08874949782613061</v>
       </c>
       <c r="X10" t="n">
-        <v>0.08928448768146559</v>
+        <v>0.08874949782613061</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.08914142701912968</v>
+        <v>0.08861837399787903</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.633270263671875</v>
+        <v>0.5624749660491943</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>3997.947804171303</v>
+        <v>3948.226895081022</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1139251992407829</v>
+        <v>0.1139847087367801</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09499019163644674</v>
+        <v>0.101630671439467</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09123913033921838</v>
+        <v>0.08835022015274206</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08926344331056962</v>
+        <v>0.08835022015274206</v>
       </c>
       <c r="J11" t="n">
-        <v>0.08926344331056962</v>
+        <v>0.08835022015274206</v>
       </c>
       <c r="K11" t="n">
-        <v>0.08926344331056962</v>
+        <v>0.08835022015274206</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08926344331056962</v>
+        <v>0.08835022015274206</v>
       </c>
       <c r="M11" t="n">
-        <v>0.08922254478635323</v>
+        <v>0.08835022015274206</v>
       </c>
       <c r="N11" t="n">
-        <v>0.08922254478635323</v>
+        <v>0.08835022015274206</v>
       </c>
       <c r="O11" t="n">
-        <v>0.08922254478635323</v>
+        <v>0.08835022015274206</v>
       </c>
       <c r="P11" t="n">
-        <v>0.08922254478635323</v>
+        <v>0.08835022015274206</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.08922254478635323</v>
+        <v>0.08835022015274206</v>
       </c>
       <c r="R11" t="n">
-        <v>0.08900991130454081</v>
+        <v>0.08817625795509355</v>
       </c>
       <c r="S11" t="n">
-        <v>0.08900991130454081</v>
+        <v>0.08817625795509355</v>
       </c>
       <c r="T11" t="n">
-        <v>0.08900991130454081</v>
+        <v>0.08787368134451931</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08900991130454081</v>
+        <v>0.08787368134451931</v>
       </c>
       <c r="V11" t="n">
-        <v>0.08864081670157957</v>
+        <v>0.08787368134451931</v>
       </c>
       <c r="W11" t="n">
-        <v>0.08864081670157957</v>
+        <v>0.08765397587302197</v>
       </c>
       <c r="X11" t="n">
-        <v>0.08864081670157957</v>
+        <v>0.08765397587302197</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.08859937240100005</v>
+        <v>0.08763015390021485</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr75_05_simulated/details.xlsx
+++ b/result/gr75_05_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5837342739105225</v>
+        <v>1.189005374908447</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4074.437543259144</v>
+        <v>2343.969756180612</v>
       </c>
       <c r="F2" t="n">
-        <v>0.115228378485947</v>
+        <v>0.1379218287815959</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09427896080783064</v>
+        <v>0.09762381338770172</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09164862871090457</v>
+        <v>0.08392823345613033</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09164862871090457</v>
+        <v>0.07541723828400335</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09162872496323575</v>
+        <v>0.06718826145539383</v>
       </c>
       <c r="K2" t="n">
-        <v>0.09162872496323575</v>
+        <v>0.06494415141123731</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09101188561319042</v>
+        <v>0.06033705017073068</v>
       </c>
       <c r="M2" t="n">
-        <v>0.09101188561319042</v>
+        <v>0.05526993044324594</v>
       </c>
       <c r="N2" t="n">
-        <v>0.09073035137147749</v>
+        <v>0.05382811397613153</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09073035137147749</v>
+        <v>0.05159656540095481</v>
       </c>
       <c r="P2" t="n">
-        <v>0.09071455732584895</v>
+        <v>0.05019217888448748</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.09071455732584895</v>
+        <v>0.04903716297000969</v>
       </c>
       <c r="R2" t="n">
-        <v>0.09071455732584895</v>
+        <v>0.04771894309870181</v>
       </c>
       <c r="S2" t="n">
-        <v>0.09071455732584895</v>
+        <v>0.04720876430970275</v>
       </c>
       <c r="T2" t="n">
-        <v>0.09071455732584895</v>
+        <v>0.04720876430970275</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09053651821903502</v>
+        <v>0.0469972698320686</v>
       </c>
       <c r="V2" t="n">
-        <v>0.09022796526948479</v>
+        <v>0.04604861009825346</v>
       </c>
       <c r="W2" t="n">
-        <v>0.09022796526948479</v>
+        <v>0.04604861009825346</v>
       </c>
       <c r="X2" t="n">
-        <v>0.09015524345774807</v>
+        <v>0.04586526025393725</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.09009040045339461</v>
+        <v>0.04569141824913472</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5937159061431885</v>
+        <v>1.176010608673096</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>4010.74386216471</v>
+        <v>2369.482337174024</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1105902634219777</v>
+        <v>0.1487985439548758</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09189161393558125</v>
+        <v>0.1078401265590551</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09176008186304557</v>
+        <v>0.0896557191526655</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09176008186304557</v>
+        <v>0.07501903566353273</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0907168224867408</v>
+        <v>0.06546581566684902</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08975750645070747</v>
+        <v>0.05974707609369931</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08975750645070747</v>
+        <v>0.05738712223894216</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08975750645070747</v>
+        <v>0.05451969127793981</v>
       </c>
       <c r="N3" t="n">
-        <v>0.08975750645070747</v>
+        <v>0.05174570081600877</v>
       </c>
       <c r="O3" t="n">
-        <v>0.08975750645070747</v>
+        <v>0.05107067444195169</v>
       </c>
       <c r="P3" t="n">
-        <v>0.08962920808997456</v>
+        <v>0.0505421992273908</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.08962920808997456</v>
+        <v>0.04978642770906904</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08962920808997456</v>
+        <v>0.04876478165922864</v>
       </c>
       <c r="S3" t="n">
-        <v>0.08962920808997456</v>
+        <v>0.0481396497895012</v>
       </c>
       <c r="T3" t="n">
-        <v>0.08938708446695913</v>
+        <v>0.04784962740959437</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08916406507233701</v>
+        <v>0.04727141415030775</v>
       </c>
       <c r="V3" t="n">
-        <v>0.08916406507233701</v>
+        <v>0.04666400869139194</v>
       </c>
       <c r="W3" t="n">
-        <v>0.08909089488286877</v>
+        <v>0.0466555972452058</v>
       </c>
       <c r="X3" t="n">
-        <v>0.08898035547547972</v>
+        <v>0.04640179076413146</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.08884880822933156</v>
+        <v>0.04618873951606284</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6720044612884521</v>
+        <v>1.269996404647827</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3982.49422706413</v>
+        <v>2325.246779653955</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1117251618707877</v>
+        <v>0.1354892594373364</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09371622492156641</v>
+        <v>0.1043364267237635</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09188442673609226</v>
+        <v>0.08641855357299737</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08868758830594635</v>
+        <v>0.07233382944655538</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08868758830594635</v>
+        <v>0.06409622841075759</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08839268234497212</v>
+        <v>0.06121366107722484</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08839268234497212</v>
+        <v>0.05524528878660095</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08839268234497212</v>
+        <v>0.05270334929793571</v>
       </c>
       <c r="N4" t="n">
-        <v>0.08839268234497212</v>
+        <v>0.05077378353248418</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08839268234497212</v>
+        <v>0.04918864993969208</v>
       </c>
       <c r="P4" t="n">
-        <v>0.08839268234497212</v>
+        <v>0.04854822603863175</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.08839268234497212</v>
+        <v>0.04822649714705302</v>
       </c>
       <c r="R4" t="n">
-        <v>0.08839268234497212</v>
+        <v>0.04751396050366662</v>
       </c>
       <c r="S4" t="n">
-        <v>0.08839268234497212</v>
+        <v>0.04686705761487967</v>
       </c>
       <c r="T4" t="n">
-        <v>0.08839268234497212</v>
+        <v>0.04639694252760584</v>
       </c>
       <c r="U4" t="n">
-        <v>0.08839268234497212</v>
+        <v>0.04612762504233548</v>
       </c>
       <c r="V4" t="n">
-        <v>0.08839268234497212</v>
+        <v>0.04575788202699366</v>
       </c>
       <c r="W4" t="n">
-        <v>0.08830880999943046</v>
+        <v>0.04554014773318141</v>
       </c>
       <c r="X4" t="n">
-        <v>0.08829813308117211</v>
+        <v>0.0453596445210215</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.08829813308117211</v>
+        <v>0.04532644794647085</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5625276565551758</v>
+        <v>1.308999061584473</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3983.118473920424</v>
+        <v>2525.808780989515</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1139790135869888</v>
+        <v>0.1480006208173046</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09696133310861395</v>
+        <v>0.105940132348289</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08851051664638104</v>
+        <v>0.08692557005632405</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08851051664638104</v>
+        <v>0.08148431452949224</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08851051664638104</v>
+        <v>0.0703028626641337</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08851051664638104</v>
+        <v>0.06628566010386341</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08851051664638104</v>
+        <v>0.06117644800618051</v>
       </c>
       <c r="M5" t="n">
-        <v>0.08851051664638104</v>
+        <v>0.05880804561412753</v>
       </c>
       <c r="N5" t="n">
-        <v>0.08851051664638104</v>
+        <v>0.05542723465798415</v>
       </c>
       <c r="O5" t="n">
-        <v>0.08851051664638104</v>
+        <v>0.05409100981600161</v>
       </c>
       <c r="P5" t="n">
-        <v>0.08851051664638104</v>
+        <v>0.05306805376483209</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08831030163587569</v>
+        <v>0.05230005403519338</v>
       </c>
       <c r="R5" t="n">
-        <v>0.08831030163587569</v>
+        <v>0.05140924370025027</v>
       </c>
       <c r="S5" t="n">
-        <v>0.08831030163587569</v>
+        <v>0.05085342462663037</v>
       </c>
       <c r="T5" t="n">
-        <v>0.08831030163587569</v>
+        <v>0.05071901371862765</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08831030163587569</v>
+        <v>0.05017348592765</v>
       </c>
       <c r="V5" t="n">
-        <v>0.08831030163587569</v>
+        <v>0.04978694260503969</v>
       </c>
       <c r="W5" t="n">
-        <v>0.08831030163587569</v>
+        <v>0.04962833721928785</v>
       </c>
       <c r="X5" t="n">
-        <v>0.08831030163587569</v>
+        <v>0.0494483405729781</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.08831030163587569</v>
+        <v>0.04923603861578001</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5781002044677734</v>
+        <v>1.155039310455322</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3965.601166609454</v>
+        <v>2316.943882444952</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1122850210477101</v>
+        <v>0.1403179557676519</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09386498307581029</v>
+        <v>0.09620524580068289</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08951999617818038</v>
+        <v>0.08126550927451952</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08951999617818038</v>
+        <v>0.07122758190643134</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08951999617818038</v>
+        <v>0.06311055976925004</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08951999617818038</v>
+        <v>0.05753835023355077</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08923115682709858</v>
+        <v>0.05297124610263465</v>
       </c>
       <c r="M6" t="n">
-        <v>0.08923115682709858</v>
+        <v>0.05187066600338757</v>
       </c>
       <c r="N6" t="n">
-        <v>0.08868089121964921</v>
+        <v>0.04928243544552424</v>
       </c>
       <c r="O6" t="n">
-        <v>0.08868089121964921</v>
+        <v>0.04898700179135378</v>
       </c>
       <c r="P6" t="n">
-        <v>0.08868089121964921</v>
+        <v>0.04846039758784792</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.08868089121964921</v>
+        <v>0.04759546871124062</v>
       </c>
       <c r="R6" t="n">
-        <v>0.08868089121964921</v>
+        <v>0.04717171223692289</v>
       </c>
       <c r="S6" t="n">
-        <v>0.08868089121964921</v>
+        <v>0.04677193801497184</v>
       </c>
       <c r="T6" t="n">
-        <v>0.08868089121964921</v>
+        <v>0.04636800158069497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08868089121964921</v>
+        <v>0.04597416131154718</v>
       </c>
       <c r="V6" t="n">
-        <v>0.08796883365710434</v>
+        <v>0.04558225669692159</v>
       </c>
       <c r="W6" t="n">
-        <v>0.08796883365710434</v>
+        <v>0.04547224971162065</v>
       </c>
       <c r="X6" t="n">
-        <v>0.08796883365710434</v>
+        <v>0.04521394302413235</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.08796883365710434</v>
+        <v>0.04516459809834213</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5937752723693848</v>
+        <v>1.179968118667603</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4015.866200509996</v>
+        <v>2345.202352554741</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1024739487415298</v>
+        <v>0.1417727471006475</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09808922256392381</v>
+        <v>0.1017164400338181</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09141855512312207</v>
+        <v>0.08315092676843923</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09056566633149699</v>
+        <v>0.07770210117651227</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09056566633149699</v>
+        <v>0.07108003110657272</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09056566633149699</v>
+        <v>0.06459266102253855</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09056566633149699</v>
+        <v>0.05641355419285166</v>
       </c>
       <c r="M7" t="n">
-        <v>0.09056566633149699</v>
+        <v>0.05587372371434392</v>
       </c>
       <c r="N7" t="n">
-        <v>0.09031574160808997</v>
+        <v>0.05337208073408346</v>
       </c>
       <c r="O7" t="n">
-        <v>0.09031574160808997</v>
+        <v>0.05167963185511477</v>
       </c>
       <c r="P7" t="n">
-        <v>0.08960213956108147</v>
+        <v>0.04914248349112386</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.08960213956108147</v>
+        <v>0.04761306877921351</v>
       </c>
       <c r="R7" t="n">
-        <v>0.08960213956108147</v>
+        <v>0.04714499486170638</v>
       </c>
       <c r="S7" t="n">
-        <v>0.08960213956108147</v>
+        <v>0.04682895599613247</v>
       </c>
       <c r="T7" t="n">
-        <v>0.08939437953377424</v>
+        <v>0.04643530890870257</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08939437953377424</v>
+        <v>0.04633943309342478</v>
       </c>
       <c r="V7" t="n">
-        <v>0.08922645563597494</v>
+        <v>0.04585158143246637</v>
       </c>
       <c r="W7" t="n">
-        <v>0.08922645563597494</v>
+        <v>0.04578482721956155</v>
       </c>
       <c r="X7" t="n">
-        <v>0.08915660016679086</v>
+        <v>0.04571544546890333</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.08894865887933714</v>
+        <v>0.04571544546890333</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5781242847442627</v>
+        <v>1.250036239624023</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3988.289631738367</v>
+        <v>2333.872984075672</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1109588348104388</v>
+        <v>0.1490791621638265</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09791663166745167</v>
+        <v>0.1011527852661363</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09791663166745167</v>
+        <v>0.08720701755267757</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09244938648061855</v>
+        <v>0.07474866858658949</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09244938648061855</v>
+        <v>0.06735947790126152</v>
       </c>
       <c r="K8" t="n">
-        <v>0.08994085561775879</v>
+        <v>0.06149695676410665</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08994085561775879</v>
+        <v>0.05815731382296782</v>
       </c>
       <c r="M8" t="n">
-        <v>0.08994085561775879</v>
+        <v>0.05631878535785891</v>
       </c>
       <c r="N8" t="n">
-        <v>0.08994085561775879</v>
+        <v>0.05370350022005747</v>
       </c>
       <c r="O8" t="n">
-        <v>0.08963904298533183</v>
+        <v>0.05182159117701591</v>
       </c>
       <c r="P8" t="n">
-        <v>0.08963904298533183</v>
+        <v>0.04902860776769753</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0885941011762193</v>
+        <v>0.04867343726322359</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0885941011762193</v>
+        <v>0.04809926703088892</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0885941011762193</v>
+        <v>0.04745364331230157</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0885941011762193</v>
+        <v>0.04728651629212414</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08841110393252175</v>
+        <v>0.04698256215715222</v>
       </c>
       <c r="V8" t="n">
-        <v>0.08841110393252175</v>
+        <v>0.04648572228080717</v>
       </c>
       <c r="W8" t="n">
-        <v>0.08841110393252175</v>
+        <v>0.04597237013578975</v>
       </c>
       <c r="X8" t="n">
-        <v>0.08841110393252175</v>
+        <v>0.04564339219947164</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.08841110393252175</v>
+        <v>0.04549460007944779</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5625247955322266</v>
+        <v>1.064001560211182</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3992.073557720511</v>
+        <v>2366.507276012098</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1111220854757544</v>
+        <v>0.1454388795598044</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09929990293201571</v>
+        <v>0.1051601298381576</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0918408374925941</v>
+        <v>0.08597291051193648</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08986321868277079</v>
+        <v>0.07409327504012035</v>
       </c>
       <c r="J9" t="n">
-        <v>0.08986321868277079</v>
+        <v>0.06650377873874121</v>
       </c>
       <c r="K9" t="n">
-        <v>0.08952076636380167</v>
+        <v>0.06155401438176421</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08952076636380167</v>
+        <v>0.05554200399772167</v>
       </c>
       <c r="M9" t="n">
-        <v>0.08951628661716182</v>
+        <v>0.05243088377181705</v>
       </c>
       <c r="N9" t="n">
-        <v>0.08901144645986662</v>
+        <v>0.0522577203298514</v>
       </c>
       <c r="O9" t="n">
-        <v>0.08901144645986662</v>
+        <v>0.05018152935252544</v>
       </c>
       <c r="P9" t="n">
-        <v>0.08901144645986662</v>
+        <v>0.04931724771792385</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.08900981318984759</v>
+        <v>0.04816939541101047</v>
       </c>
       <c r="R9" t="n">
-        <v>0.08900981318984759</v>
+        <v>0.04816939541101047</v>
       </c>
       <c r="S9" t="n">
-        <v>0.08880996559080201</v>
+        <v>0.04753367241670278</v>
       </c>
       <c r="T9" t="n">
-        <v>0.08880996559080201</v>
+        <v>0.0467229329537231</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08880996559080201</v>
+        <v>0.0467229329537231</v>
       </c>
       <c r="V9" t="n">
-        <v>0.08880996559080201</v>
+        <v>0.04654715543157777</v>
       </c>
       <c r="W9" t="n">
-        <v>0.08880996559080201</v>
+        <v>0.04627330289001558</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0887837138704558</v>
+        <v>0.04627330289001558</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.08848486467291442</v>
+        <v>0.04613074612109352</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5780987739562988</v>
+        <v>1.258014678955078</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>3998.922586091195</v>
+        <v>2375.033445383437</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1160189416882825</v>
+        <v>0.1244215905629234</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1067350372143929</v>
+        <v>0.1015054022390827</v>
       </c>
       <c r="H10" t="n">
-        <v>0.09140478528807247</v>
+        <v>0.08328388809532412</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09140478528807247</v>
+        <v>0.07283539889984959</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0912114978673526</v>
+        <v>0.06843615063589194</v>
       </c>
       <c r="K10" t="n">
-        <v>0.09069082666031124</v>
+        <v>0.06186319894778834</v>
       </c>
       <c r="L10" t="n">
-        <v>0.08898554863375562</v>
+        <v>0.05764173825951959</v>
       </c>
       <c r="M10" t="n">
-        <v>0.08898554863375562</v>
+        <v>0.05583841212785171</v>
       </c>
       <c r="N10" t="n">
-        <v>0.08898554863375562</v>
+        <v>0.05453386465467414</v>
       </c>
       <c r="O10" t="n">
-        <v>0.08898554863375562</v>
+        <v>0.05209776043278985</v>
       </c>
       <c r="P10" t="n">
-        <v>0.08898554863375562</v>
+        <v>0.05048826401231109</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.08898554863375562</v>
+        <v>0.04966632133697318</v>
       </c>
       <c r="R10" t="n">
-        <v>0.08898554863375562</v>
+        <v>0.04871323346025792</v>
       </c>
       <c r="S10" t="n">
-        <v>0.08898554863375562</v>
+        <v>0.0478448239162141</v>
       </c>
       <c r="T10" t="n">
-        <v>0.08898554863375562</v>
+        <v>0.04745204438538783</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08874949782613061</v>
+        <v>0.04745204438538783</v>
       </c>
       <c r="V10" t="n">
-        <v>0.08874949782613061</v>
+        <v>0.04701371624263587</v>
       </c>
       <c r="W10" t="n">
-        <v>0.08874949782613061</v>
+        <v>0.04655213535004091</v>
       </c>
       <c r="X10" t="n">
-        <v>0.08874949782613061</v>
+        <v>0.04637328657262785</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.08861837399787903</v>
+        <v>0.04629694825308842</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5624749660491943</v>
+        <v>1.124999046325684</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3948.226895081022</v>
+        <v>2396.645271401234</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1139847087367801</v>
+        <v>0.1356765322885027</v>
       </c>
       <c r="G11" t="n">
-        <v>0.101630671439467</v>
+        <v>0.1051430614231803</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08835022015274206</v>
+        <v>0.09024627092258045</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08835022015274206</v>
+        <v>0.08039669197952146</v>
       </c>
       <c r="J11" t="n">
-        <v>0.08835022015274206</v>
+        <v>0.07372249716436251</v>
       </c>
       <c r="K11" t="n">
-        <v>0.08835022015274206</v>
+        <v>0.06686882904582876</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08835022015274206</v>
+        <v>0.06318789564759339</v>
       </c>
       <c r="M11" t="n">
-        <v>0.08835022015274206</v>
+        <v>0.06057242971060489</v>
       </c>
       <c r="N11" t="n">
-        <v>0.08835022015274206</v>
+        <v>0.05858379284136753</v>
       </c>
       <c r="O11" t="n">
-        <v>0.08835022015274206</v>
+        <v>0.05641980513892528</v>
       </c>
       <c r="P11" t="n">
-        <v>0.08835022015274206</v>
+        <v>0.05366881585895579</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.08835022015274206</v>
+        <v>0.05150677702919379</v>
       </c>
       <c r="R11" t="n">
-        <v>0.08817625795509355</v>
+        <v>0.05148920369848264</v>
       </c>
       <c r="S11" t="n">
-        <v>0.08817625795509355</v>
+        <v>0.0504528867205261</v>
       </c>
       <c r="T11" t="n">
-        <v>0.08787368134451931</v>
+        <v>0.04932340616522807</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08787368134451931</v>
+        <v>0.04864520748761079</v>
       </c>
       <c r="V11" t="n">
-        <v>0.08787368134451931</v>
+        <v>0.04743061002416035</v>
       </c>
       <c r="W11" t="n">
-        <v>0.08765397587302197</v>
+        <v>0.04706947534926163</v>
       </c>
       <c r="X11" t="n">
-        <v>0.08765397587302197</v>
+        <v>0.04682790697688306</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.08763015390021485</v>
+        <v>0.04671823141133009</v>
       </c>
     </row>
   </sheetData>
